--- a/assets/research papers.xlsx
+++ b/assets/research papers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="489">
   <si>
     <t xml:space="preserve">s. no</t>
   </si>
@@ -763,6 +763,63 @@
     <t xml:space="preserve">Fizjoterapia Polska</t>
   </si>
   <si>
+    <t xml:space="preserve">Clinical outcomes of robotic enhanced view totally extraperitoneal technique for ventral hernia repair – a systematic review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International surgery journal 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol 12 issue 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparative efficacy of tranexamic acid vs EACA in reducing surgical bleeding: A comprehencive review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol 24 issue 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimicrobial prescribing patterns in pre and post operative appendicitis surgery: A hospital based obsevational study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALUATING THE EFFECTIVENESS AND SAFETY OF DIFFERENT ANTIBIOTIC REGIMEN USED IN THE TREATMENT OF ACUTE APPENDICITIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IJISRT 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOL 10 ISSUE 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparative analysis on laproscopic surgery vs open surgery in reducing SSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IJPS 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol 3 Issue 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A COMPARATIVE STUDY OF ORAL VS INTRAVENOUS CIPROFLOXACIN IN CELLULITIS TREATMENT AT A TERTIARY CARE TEACHING HOSPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGATING THE RELATIONSHIP BETWEEN PERIOPERATIVE GLYCEMIC CONTROL AND SSI IN PATIENTS WITH DIABETES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IJNTI 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOL 3 ISSUE 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGATING THE RELATIONSHIP BETWEEN GLYCEMIC CONTROL AND DIABETIC FOOT ULCER HEALING RATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSESMENT OF RISK FACTORS AND TREATMENT OUTCOMES IN PATIENTS WITH CELLULITIS OVER A DEFINED PERIOD</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
@@ -976,34 +1033,10 @@
     <t xml:space="preserve">CLINICAL EVALUATION OF HOLLOW VISCOUS PERFORATION IN TERTIARY CARE HOSPITAL - A PROSPECTIVE STUDY</t>
   </si>
   <si>
-    <t xml:space="preserve">A COMPARATIVE STUDY OF ORAL VS INTRAVENOUS CIPROFLOXACIN IN CELLULITIS TREATMENT AT A TERTIARY CARE TEACHING HOSPITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IJISRT 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOL 10 ISSUE 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSESMENT OF RISK FACTORS AND TREATMENT OUTCOMES IN PATIENTS WITH CELLULITIS OVER A DEFINED PERIOD</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAFETY AND EFFICACY OF INTRAMUSCULAR DICLOFENAC FOR THE POSTOPERATIVE PAIN MANAGEMENT IN ELECTIVE INGUINAL HERNIA SURGERY: A PROSPECTIVE OBSERVATIONAL STUDY</t>
   </si>
   <si>
-    <t xml:space="preserve">EVALUATING THE EFFECTIVENESS AND SAFETY OF DIFFERENT ANTIBIOTIC REGIMEN USED IN THE TREATMENT OF ACUTE APPENDICITIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">INVESTIGATING THE RELATIONSHIP BETWEEN PERIOPERATIVE GLYCEMIC CONROL AND SURGICAL SITE INFECTION IN PATIENTS WITH DIABETES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IJNTI 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOL 3 ISSUE 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INVESTIGATING THE RELATIONSHIP BETWEEN GLYCEMIC CONTROL AND DIABETIC FOOT ULCER HEALING RATES</t>
   </si>
   <si>
     <t xml:space="preserve">PREVALENCE AND RISK FACTORS OF HEMORRHOIDS: A STUDY IN A TERTIARY CARE TEACHING HOSPITAL</t>
@@ -1500,7 +1533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1538,6 +1571,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1592,20 +1631,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1802,15 +1849,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45:A186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="14.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +3248,7 @@
         <v>View File</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -3621,7 +3668,7 @@
         <v>View File</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -3702,372 +3749,354 @@
         <v>View File</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="G86" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Q-qW1bRHj-yCwjzTiyFIs6G2JV6rApnf/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1dwtbbypT5tVJVK8MC12q3DxtpRj7r3wb/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="G87" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/15XXmt_i5ef1EQdjbaZMSN48CklGLuxBB/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1n02L5yUHmViMHoc3aBi9bEXQ1Mvj0bh6/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="G88" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1vvYDIJmJ7sMLZIezZnKk19FzjP60bV5w/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1ybToo2ncanZYZ-xhYx9MfnWgr7g5JnSp/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G89" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1g_RWM_bwFTwyFk37D7KbNoeq-K5LvGMR/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1jJwi4kB3ImIB-2cUYKnuAEQgFmum5RQe/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G90" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xxbewbyaQkfXeptOQPIP82hu4vZeUB-1/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1PPkCEcGwq6NqjMoWVOoYEK8lQe5GX0wN/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G91" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1HH5QJTLhiz_TZ_MLPR0ux0pPyMW2xIqM/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1c0HnrDrqspUfBZlOxSVR9QzmQCxQtxrI/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G92" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1maYwff0eYQIBLOYMhOJC54lEXS1TYSEU/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+      <c r="G92" s="5" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1pvU27_W3z3A0n0pEcIkr6lQ2Jh8dz4Xj/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G93" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1T-G5ApyWW7WYCuZnCw0aU0Sq9y1RH3JT/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="G93" s="5" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1vuiBVLxW_AW-kxlCwvRHI45DTfjW9N99/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G94" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1_1LDKjN3WA2xdMMerQcYkEiJAiXO__rW/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="G94" s="5" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1ChvRVnKiziaxMIQVGJ278F6FuXgYwLeu/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="G95" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/16o4XtC2LGL8d-GiPI1tOWCKmTBnS7HE7/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Q-qW1bRHj-yCwjzTiyFIs6G2JV6rApnf/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G96" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1cfkuHWi-W6DzrsTau6VJU64mNUiwaksK/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/15XXmt_i5ef1EQdjbaZMSN48CklGLuxBB/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XUmsm8XSfIfK-AHjFT6mMDJ8YBMuhCoC/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1vvYDIJmJ7sMLZIezZnKk19FzjP60bV5w/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/16hEr12NoZrWlpoEymMq54irw0DyU_bbs/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1g_RWM_bwFTwyFk37D7KbNoeq-K5LvGMR/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G99" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1uXXg4jG2F8FzrrIA8rJw7-9JoVPjd1wX/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xxbewbyaQkfXeptOQPIP82hu4vZeUB-1/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G100" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Z4e8le3tme64c5nGRXwu9PIXV7pWycsC/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1HH5QJTLhiz_TZ_MLPR0ux0pPyMW2xIqM/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>287</v>
+        <v>106</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G101" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1JTiujfoXWB834QHQSDALZGYYTNJnUCRH/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1maYwff0eYQIBLOYMhOJC54lEXS1TYSEU/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4076,64 +4105,67 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>291</v>
+        <v>106</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G102" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13gda-N1C7zIEKkaMY3jleArw-l9Y0C24/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1T-G5ApyWW7WYCuZnCw0aU0Sq9y1RH3JT/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="G103" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1qP4TsqR_KSXHJeD4I2E77GJOtBdtCaTT/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1_1LDKjN3WA2xdMMerQcYkEiJAiXO__rW/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G104" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1AeFv5B6ijQV_EBxvhBsl-yUCOIGzP2hY/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/16o4XtC2LGL8d-GiPI1tOWCKmTBnS7HE7/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4142,271 +4174,286 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>201</v>
+        <v>291</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1UIvEwhxTfe85QvhgiCLGrAFSeR6TGv5F/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1cfkuHWi-W6DzrsTau6VJU64mNUiwaksK/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>201</v>
+        <v>295</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1BOKiy-ARXaj030qjn2TyCZyW1EIBoMUo/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XUmsm8XSfIfK-AHjFT6mMDJ8YBMuhCoC/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1i-EGixJ7cii5hqxTFVMYQcFJwxba-kg9/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/16hEr12NoZrWlpoEymMq54irw0DyU_bbs/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XrZ91bOtwzL9ASwECWZ_sNU0FtB7Tc9C/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1uXXg4jG2F8FzrrIA8rJw7-9JoVPjd1wX/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="G109" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1_9I7PWyb04F-WDLu-iI6_NmLu5xJ3dKA/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Z4e8le3tme64c5nGRXwu9PIXV7pWycsC/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>305</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>201</v>
+        <v>307</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/157jWE8qcm59DvH13ppN7ILTcBZqhJl0u/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1JTiujfoXWB834QHQSDALZGYYTNJnUCRH/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>201</v>
+        <v>311</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1rpkFgJjYzLsU-uVI3p7yDyvdklUParmV/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13gda-N1C7zIEKkaMY3jleArw-l9Y0C24/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/19azOcwSRrhoEj5P97jaAmuqq1LiGu3mA/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1qP4TsqR_KSXHJeD4I2E77GJOtBdtCaTT/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1523TLizbxwVqiyUPYEwqB_9-3Yq82o5X/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1AeFv5B6ijQV_EBxvhBsl-yUCOIGzP2hY/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1B2Wu2SapGYYWPL4KYrrAqEQHXoSOjfvl/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1UIvEwhxTfe85QvhgiCLGrAFSeR6TGv5F/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1EvY97CXjkEsVVReRBOOPL77vCsd1YG0c/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1BOKiy-ARXaj030qjn2TyCZyW1EIBoMUo/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10gZy3zAXjW-ICONFLQ2zlETokZ1fLAeC/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1i-EGixJ7cii5hqxTFVMYQcFJwxba-kg9/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/16yLN2o8W_Lgnta9wURnzqkNjKqwkdfpB/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XrZ91bOtwzL9ASwECWZ_sNU0FtB7Tc9C/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4415,250 +4462,250 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1CvveZqLei21zZZ3iz8qkRYzTWeQFuwcK/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1_9I7PWyb04F-WDLu-iI6_NmLu5xJ3dKA/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="G119" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Fv6EbadRYAJz5qBnRk6sbKy7y7LI9VsI/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/157jWE8qcm59DvH13ppN7ILTcBZqhJl0u/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="G120" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1iWdV8saFgZHJHGbC-zTXIxj77RcQs9SL/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1rpkFgJjYzLsU-uVI3p7yDyvdklUParmV/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="G121" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/127lbxuo17iROFUGR4KVHJ5Kn1eqfxCAY/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/19azOcwSRrhoEj5P97jaAmuqq1LiGu3mA/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="G122" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lWEV0oN_W3bi0lfDN76Pasr5Z6UkXp46/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1523TLizbxwVqiyUPYEwqB_9-3Yq82o5X/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="G123" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lMLcvDkjlY16f_bJ0wgALU5o3NyJAsFR/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1EvY97CXjkEsVVReRBOOPL77vCsd1YG0c/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="G124" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1q-1sONVDlI_-A5mPBjF1zNBYX19JWATt/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10gZy3zAXjW-ICONFLQ2zlETokZ1fLAeC/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G125" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1fgwc2uEUw6T_0gIBGHKHLpWkD2qnbnN9/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1CvveZqLei21zZZ3iz8qkRYzTWeQFuwcK/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="G126" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13vXJgavldsT8g_ICfrhpG-8NCj_itVV_/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Fv6EbadRYAJz5qBnRk6sbKy7y7LI9VsI/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="G127" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1caCihUZK1Xzva6iTRBoeOBPnTaXNuDEt/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1iWdV8saFgZHJHGbC-zTXIxj77RcQs9SL/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="G128" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1YnxZehZH4dXm0_NDTo4dAH9Ccxys6pHo/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/127lbxuo17iROFUGR4KVHJ5Kn1eqfxCAY/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="G129" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nOGRtT966heMd3zc1QZtQDTXG65gHjCY/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lWEV0oN_W3bi0lfDN76Pasr5Z6UkXp46/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4667,277 +4714,265 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>332</v>
+        <v>211</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="G130" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RENuKnUMrHERcB5tqJ88sgzMKAXxfikf/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lMLcvDkjlY16f_bJ0wgALU5o3NyJAsFR/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>334</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>335</v>
+        <v>211</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>336</v>
+        <v>212</v>
       </c>
       <c r="G131" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1SYV9Nh9IHss6RTHbZiBUpUvwLYVTET4v/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="246.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1q-1sONVDlI_-A5mPBjF1zNBYX19JWATt/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>338</v>
+        <v>211</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>339</v>
+        <v>212</v>
       </c>
       <c r="G132" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1FHD-CsOtMsipvaBmVzmkHaC3Ou_oVcn8/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1fgwc2uEUw6T_0gIBGHKHLpWkD2qnbnN9/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>341</v>
+        <v>211</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>341</v>
+        <v>212</v>
       </c>
       <c r="G133" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1KaUPd8b-vTMVBhKu2s4JB6jupDCENL0c/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13vXJgavldsT8g_ICfrhpG-8NCj_itVV_/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>343</v>
+        <v>220</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="G134" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Ihrms9ZcHFnvTxr3Xwt24fg6IK-SReIH/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1caCihUZK1Xzva6iTRBoeOBPnTaXNuDEt/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="G135" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1wVgk8hr7o5Hi61bZaymp92xr0VeU1Pei/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1YnxZehZH4dXm0_NDTo4dAH9Ccxys6pHo/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>121</v>
+        <v>340</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G136" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/11zYKNULMEBcCQBVGjjmc9wWedNDk_poI/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nOGRtT966heMd3zc1QZtQDTXG65gHjCY/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G137" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1V0uk7yO9nytcWIJplvPiaYv4EiO1Shbu/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RENuKnUMrHERcB5tqJ88sgzMKAXxfikf/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G138" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1QpcphaGKkCOvwU00BlYqlST_DifUU0E-/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1SYV9Nh9IHss6RTHbZiBUpUvwLYVTET4v/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="246.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G139" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13iKtvl1cq1DpZtQ9PbuUCnYhg6Kb35_k/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1FHD-CsOtMsipvaBmVzmkHaC3Ou_oVcn8/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="G140" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1k5LgCBqPy1b0BhuCaQ2_B6Atq257yCRh/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1KaUPd8b-vTMVBhKu2s4JB6jupDCENL0c/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G141" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TwD31IQAcwPcL7VUErziextXJd4-X3WL/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Ihrms9ZcHFnvTxr3Xwt24fg6IK-SReIH/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>367</v>
+        <v>121</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G142" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/12F8AuqLFOicjJtFp05IxFnEY20Kr0QUF/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1wVgk8hr7o5Hi61bZaymp92xr0VeU1Pei/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4946,199 +4981,202 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G143" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TJJBFNr6yatN8bcAMgQknKUpCdMKgvKd/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/11zYKNULMEBcCQBVGjjmc9wWedNDk_poI/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="G144" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xbxRyCJa_CLlpCLb6iRRXCZwwzuyRKbV/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1V0uk7yO9nytcWIJplvPiaYv4EiO1Shbu/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>377</v>
+        <v>364</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="G145" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1JRUY1Eyo4WLgYzRHKHLvPqAbXMjJsrVM/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1QpcphaGKkCOvwU00BlYqlST_DifUU0E-/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="G146" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1eg_DK5EijcdLkEIEVfU4W2nQ3L3YT4V7/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13iKtvl1cq1DpZtQ9PbuUCnYhg6Kb35_k/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G147" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nJGHq1Kdm5TfIYNcRfFTj769dsktpUA-/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1k5LgCBqPy1b0BhuCaQ2_B6Atq257yCRh/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="G148" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1ASfdXFVAJj3aXzUnosbVPclVZwnBxHPh/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TwD31IQAcwPcL7VUErziextXJd4-X3WL/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G149" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1d5AtbAYORgBJG0R8TTGuQ7fLN49OQgih/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/12F8AuqLFOicjJtFp05IxFnEY20Kr0QUF/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="G150" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1P5d9J-NAspvQaDPkgM-Ho1ss6YAiqGei/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TJJBFNr6yatN8bcAMgQknKUpCdMKgvKd/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G151" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TrsMZxTE1vLZFUsJdFkUzjM48c4yDji2/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xbxRyCJa_CLlpCLb6iRRXCZwwzuyRKbV/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -5147,205 +5185,202 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G152" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1GM0XbTLyZOuOgFzQN-TjCWK_hNVqJzqE/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1JRUY1Eyo4WLgYzRHKHLvPqAbXMjJsrVM/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G153" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RXQxLOgI_Zfz0mJNGIjsyWxLN87f2Ad9/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1eg_DK5EijcdLkEIEVfU4W2nQ3L3YT4V7/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="G154" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1LLJ-zsQUd3AK0yzVPv24k97kJDp76ZKF/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="261.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nJGHq1Kdm5TfIYNcRfFTj769dsktpUA-/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G155" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1oEraGsi8wpFH0h69cG7HL2uoVj2zaLy4/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1ASfdXFVAJj3aXzUnosbVPclVZwnBxHPh/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G156" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/11XsDwJPL6ig8DfL3J_M1Lkq-ab699ejo/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1d5AtbAYORgBJG0R8TTGuQ7fLN49OQgih/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G157" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lMGPmtRHMJkPvuQR4TwSqXwv0IykGctr/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1P5d9J-NAspvQaDPkgM-Ho1ss6YAiqGei/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G158" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1p20SPwf-DVmuib93BOKmnk7mcJ8Yvukm/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TrsMZxTE1vLZFUsJdFkUzjM48c4yDji2/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="G159" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xFMHSp_w3_GWDtIpHrm8RczZ4-E9MJk6/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1GM0XbTLyZOuOgFzQN-TjCWK_hNVqJzqE/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="G160" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1wZXZWXWw3tXNPlpGoI7m7q_MbqT5LyqD/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RXQxLOgI_Zfz0mJNGIjsyWxLN87f2Ad9/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -5354,435 +5389,594 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="G161" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1poNtX68ZTj55-zfmcTa5Zt0fEmhjn9id/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1LLJ-zsQUd3AK0yzVPv24k97kJDp76ZKF/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="261.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="G162" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1M7OvC7N60VzPcBNU7UqF-sEp5PBdISDJ/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1oEraGsi8wpFH0h69cG7HL2uoVj2zaLy4/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="G163" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1jQiQHc0Av9dzDnRMa6qJixDDWW-iM3DF/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/11XsDwJPL6ig8DfL3J_M1Lkq-ab699ejo/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G164" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nBqjD92acK9yOONMgt_rJcHJGWvT86Gr/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lMGPmtRHMJkPvuQR4TwSqXwv0IykGctr/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G165" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1tVymi1GV6B3Dzv4NfJYnIaWCLAiWXJ-w/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1p20SPwf-DVmuib93BOKmnk7mcJ8Yvukm/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G166" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13KRfTja9tW6PHFUZkyaOfEkKIzyiL9Ut/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xFMHSp_w3_GWDtIpHrm8RczZ4-E9MJk6/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G167" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1N-BNT9G1L8KpWqS0X3sOolfc43FVvG3R/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1wZXZWXWw3tXNPlpGoI7m7q_MbqT5LyqD/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="G168" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1aAi7t_t_yQfdaxSMzMLP5CtKdL-gRvUZ/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1poNtX68ZTj55-zfmcTa5Zt0fEmhjn9id/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G169" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xcG9IUizrKBXDf2QRARu-_OHCbBuDtxF/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1M7OvC7N60VzPcBNU7UqF-sEp5PBdISDJ/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="G170" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10JhEg4mnAFc9SpDpoocs-rVajpjc4B7E/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1jQiQHc0Av9dzDnRMa6qJixDDWW-iM3DF/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>454</v>
+        <v>390</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="G171" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1I6DHyRk__vdR2NRW39Ao_T5-OpLhDN3f/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nBqjD92acK9yOONMgt_rJcHJGWvT86Gr/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="G172" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TV6yJqNfSbgHa1G9MxGR1Nqbj_H_Uzdw/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1tVymi1GV6B3Dzv4NfJYnIaWCLAiWXJ-w/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>461</v>
+        <v>450</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="G173" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Ziwgn9v8FhX7D5cbcTY6zlOt0C5i7EyI/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13KRfTja9tW6PHFUZkyaOfEkKIzyiL9Ut/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G174" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/12MS9c05uary3oXP9BuCPYK-LCR_OmYfT/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1N-BNT9G1L8KpWqS0X3sOolfc43FVvG3R/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G175" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XIxlZsHp-rThALAnTH4Yq3IKwQuOOjAn/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="246.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1aAi7t_t_yQfdaxSMzMLP5CtKdL-gRvUZ/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>471</v>
+        <v>458</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="G176" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xb7FiZSj_iNq1hLfnE4o0xLCdlRVca4X/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xcG9IUizrKBXDf2QRARu-_OHCbBuDtxF/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>473</v>
+        <v>461</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="G177" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RxwYuxI5bT6NOZ41tUi9CevvrXf2t-Wg/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10JhEg4mnAFc9SpDpoocs-rVajpjc4B7E/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="G178" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10AXSKVH6Iq7aMhxH6oDEg5C0-JTPCKLN/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1I6DHyRk__vdR2NRW39Ao_T5-OpLhDN3f/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G179" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TV6yJqNfSbgHa1G9MxGR1Nqbj_H_Uzdw/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G180" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Ziwgn9v8FhX7D5cbcTY6zlOt0C5i7EyI/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G181" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/12MS9c05uary3oXP9BuCPYK-LCR_OmYfT/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G179" s="1" t="str">
+      <c r="E182" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G182" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XIxlZsHp-rThALAnTH4Yq3IKwQuOOjAn/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="246.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G183" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xb7FiZSj_iNq1hLfnE4o0xLCdlRVca4X/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G184" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RxwYuxI5bT6NOZ41tUi9CevvrXf2t-Wg/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G185" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10AXSKVH6Iq7aMhxH6oDEg5C0-JTPCKLN/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G186" s="1" t="str">
         <f aca="false">HYPERLINK("https://drive.google.com/file/d/1zfslu1a-SA0LrhYvLnQ2LtB4azin83Tx/preview","View File")</f>
         <v>View File</v>
       </c>
@@ -5822,22 +6016,22 @@
     <hyperlink ref="F45" r:id="rId31" display="https://aijournals.com/index.php/ajs/article/view/1859"/>
     <hyperlink ref="F46" r:id="rId32" display="https://aijournals.com/index.php/ajs/article/view/1858"/>
     <hyperlink ref="F47" r:id="rId33" display="http://www.ijmacr.com/issue/pagedata/520/Laparoscopic-vs-Open-http://www.ijmacr.com/issue/pagedata/520/Laparoscopic-vs-Open-Drainage-of-Complex-Pyogenic-Liver-Abscess"/>
-    <hyperlink ref="F86" r:id="rId34" display="https://www.rjpbcs.com/2011_2.4.html"/>
-    <hyperlink ref="F87" r:id="rId35" display="https://ijrps.com/index.php/home/article/view/3595"/>
-    <hyperlink ref="F89" r:id="rId36" display="https://journalijcmes.com/issues/local-application-phenytoin-sodium-diabetic-ulcers-randomized-prospective-study"/>
-    <hyperlink ref="F90" r:id="rId37" display="http://journalijmrr.com/?page_id=1397"/>
-    <hyperlink ref="F92" r:id="rId38" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
-    <hyperlink ref="F93" r:id="rId39" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
-    <hyperlink ref="F94" r:id="rId40" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
-    <hyperlink ref="F96" r:id="rId41" display="https://dx.doi.org/10.18535/jmscr/v5i10.130"/>
-    <hyperlink ref="F97" r:id="rId42" display="https://www.ijsar.in/archiveslist.aspx?id=40"/>
-    <hyperlink ref="F100" r:id="rId43" display="https://dx.doi.org/10.18535/jmscr/v7i6.156"/>
-    <hyperlink ref="F101" r:id="rId44" display="https://www.ijmacr.com/issue/archive_issue/25"/>
-    <hyperlink ref="F102" r:id="rId45" display="http://www.ijmacr.com/issue/pagedata/514/Study-on-stage-of-breast-carcinoma-at-the-time-of-hospitalisation"/>
-    <hyperlink ref="F137" r:id="rId46" display="https://www.worldwidejournals.com/paripex/recent_issues_pdf/2016/December/patient-satisfaction-on-hospital-catering-and-dietary-management-in-a-specialty-hospital_December_2016_1108090566_0811838.pdf"/>
-    <hyperlink ref="F140" r:id="rId47" display="https://www.elixirpublishers.com/index.php?route=articles/archives&amp;month=January&amp;year=2017"/>
-    <hyperlink ref="F145" r:id="rId48" display="https://www.wjpr.net/ abstract show/6550"/>
-    <hyperlink ref="F147" r:id="rId49" display="https://www.worldwidejournals.com/paripex/recent_issues_pdf/2016/December/a-project-report-on-customer-stisfaction-towrds-patients-at-billroth-hospital_December_2016_9006566011_9700705.pdf"/>
+    <hyperlink ref="F95" r:id="rId34" display="https://www.rjpbcs.com/2011_2.4.html"/>
+    <hyperlink ref="F96" r:id="rId35" display="https://ijrps.com/index.php/home/article/view/3595"/>
+    <hyperlink ref="F98" r:id="rId36" display="https://journalijcmes.com/issues/local-application-phenytoin-sodium-diabetic-ulcers-randomized-prospective-study"/>
+    <hyperlink ref="F99" r:id="rId37" display="http://journalijmrr.com/?page_id=1397"/>
+    <hyperlink ref="F101" r:id="rId38" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
+    <hyperlink ref="F102" r:id="rId39" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
+    <hyperlink ref="F103" r:id="rId40" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
+    <hyperlink ref="F105" r:id="rId41" display="https://dx.doi.org/10.18535/jmscr/v5i10.130"/>
+    <hyperlink ref="F106" r:id="rId42" display="https://www.ijsar.in/archiveslist.aspx?id=40"/>
+    <hyperlink ref="F109" r:id="rId43" display="https://dx.doi.org/10.18535/jmscr/v7i6.156"/>
+    <hyperlink ref="F110" r:id="rId44" display="https://www.ijmacr.com/issue/archive_issue/25"/>
+    <hyperlink ref="F111" r:id="rId45" display="http://www.ijmacr.com/issue/pagedata/514/Study-on-stage-of-breast-carcinoma-at-the-time-of-hospitalisation"/>
+    <hyperlink ref="F144" r:id="rId46" display="https://www.worldwidejournals.com/paripex/recent_issues_pdf/2016/December/patient-satisfaction-on-hospital-catering-and-dietary-management-in-a-specialty-hospital_December_2016_1108090566_0811838.pdf"/>
+    <hyperlink ref="F147" r:id="rId47" display="https://www.elixirpublishers.com/index.php?route=articles/archives&amp;month=January&amp;year=2017"/>
+    <hyperlink ref="F152" r:id="rId48" display="https://www.wjpr.net/ abstract show/6550"/>
+    <hyperlink ref="F154" r:id="rId49" display="https://www.worldwidejournals.com/paripex/recent_issues_pdf/2016/December/a-project-report-on-customer-stisfaction-towrds-patients-at-billroth-hospital_December_2016_9006566011_9700705.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/assets/research papers.xlsx
+++ b/assets/research papers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="501">
   <si>
     <t xml:space="preserve">s. no</t>
   </si>
@@ -818,6 +818,42 @@
   </si>
   <si>
     <t xml:space="preserve">ASSESMENT OF RISK FACTORS AND TREATMENT OUTCOMES IN PATIENTS WITH CELLULITIS OVER A DEFINED PERIOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of Clinical and Lifestyle Risk Factors Contributing to the Disease Burden of Diabetic Foot Ulcers: A Prospective Observational Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOL 10 ISSUE 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIMICROBIAL PRESCRIBING PATTERNS IN PRE AND POST OPERATIVE APPENDICITIS SURGERY: HOSPITAL BASED OBSERVATIONAL STUDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YMER 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE EFFICACY OF STEM CELLS IN WOUND HEALING: A SYSTEMATIC REVIEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibiotic Delivery Systems in Surgical Care: A Systematic Review of Infection Control and Healing Outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgical Case Patterns and WHO AWaRe Antibiotic Utilization: A Retrospective Hospital-Based Study from South India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postoperative Pain Management in Umbilical Hernia Surgery: A Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postoperative Psychosocial Impact of Hysterectomy on Women: A Systematic Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmacological Modulations of Angiogenesis in Diabetic Surgical Wound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Determinants of Lower Extremity Amputation in Diabetic Foot Ulcer Patients: A Comprehensive Clinical Review of Risk Factors, Outcomes, and Systemic Drivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Approaches in the Management of Complicated Hernias: Focus on Strangulated, Obstructed, and Recurrent Cases</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -1533,7 +1569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1571,12 +1607,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1631,7 +1661,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1645,10 +1675,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1849,13 +1875,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A185" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45:A186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A195" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B196" activeCellId="0" sqref="B196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="14.7"/>
   </cols>
@@ -3770,7 +3796,7 @@
         <v>View File</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -3833,7 +3859,7 @@
         <v>View File</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
@@ -3891,7 +3917,7 @@
       <c r="E92" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G92" s="5" t="str">
+      <c r="G92" s="4" t="str">
         <f aca="false">HYPERLINK("https://drive.google.com/file/d/1pvU27_W3z3A0n0pEcIkr6lQ2Jh8dz4Xj/preview","View File")</f>
         <v>View File</v>
       </c>
@@ -3912,7 +3938,7 @@
       <c r="E93" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G93" s="5" t="str">
+      <c r="G93" s="4" t="str">
         <f aca="false">HYPERLINK("https://drive.google.com/file/d/1vuiBVLxW_AW-kxlCwvRHI45DTfjW9N99/preview","View File")</f>
         <v>View File</v>
       </c>
@@ -3933,146 +3959,134 @@
       <c r="E94" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G94" s="5" t="str">
+      <c r="G94" s="4" t="str">
         <f aca="false">HYPERLINK("https://drive.google.com/file/d/1ChvRVnKiziaxMIQVGJ278F6FuXgYwLeu/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G95" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Q-qW1bRHj-yCwjzTiyFIs6G2JV6rApnf/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G95" s="4" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1NPue2vQHU8OrESEYv_K5jby9EVtgzGgR/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G96" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/15XXmt_i5ef1EQdjbaZMSN48CklGLuxBB/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xwHC7x6u6WJth2rMWo4VAqwf67PColO2/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G97" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1vvYDIJmJ7sMLZIezZnKk19FzjP60bV5w/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1OKu1h6jNN_2XqgQGXBq9CyY84PsGGBuj/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G98" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1g_RWM_bwFTwyFk37D7KbNoeq-K5LvGMR/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1DngSFMdrOpdKtCdBWWwClYSCciREMnJO/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G99" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xxbewbyaQkfXeptOQPIP82hu4vZeUB-1/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1NdO8Za_9YOCbfwos6AP5fZg2_WXMoQ90/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G100" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1HH5QJTLhiz_TZ_MLPR0ux0pPyMW2xIqM/preview","View File")</f>
+        <v>243</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1mSwWvEpCpS49DakfaaPJJuOoMktk4JVa/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4081,115 +4095,106 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G101" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1maYwff0eYQIBLOYMhOJC54lEXS1TYSEU/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="G101" s="0" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1MZEi0giw-8scndeAdOE4AykwG_lkA5PA/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G102" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1T-G5ApyWW7WYCuZnCw0aU0Sq9y1RH3JT/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="G102" s="0" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1b-adMtFC-5Kj5BotDxk763Mw01Me-BwW/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G103" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1_1LDKjN3WA2xdMMerQcYkEiJAiXO__rW/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="G103" s="0" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1f-qVrdgFo1Rri_fHgqPWrDGoP7zBXqEo/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G104" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/16o4XtC2LGL8d-GiPI1tOWCKmTBnS7HE7/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="G104" s="0" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1tvhy58UM8UlMVzB-GZTWXv8MrOsQCBmn/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G105" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1cfkuHWi-W6DzrsTau6VJU64mNUiwaksK/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Q-qW1bRHj-yCwjzTiyFIs6G2JV6rApnf/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4198,22 +4203,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G106" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XUmsm8XSfIfK-AHjFT6mMDJ8YBMuhCoC/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/15XXmt_i5ef1EQdjbaZMSN48CklGLuxBB/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4222,238 +4227,250 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="G107" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/16hEr12NoZrWlpoEymMq54irw0DyU_bbs/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1vvYDIJmJ7sMLZIezZnKk19FzjP60bV5w/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="G108" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1uXXg4jG2F8FzrrIA8rJw7-9JoVPjd1wX/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1g_RWM_bwFTwyFk37D7KbNoeq-K5LvGMR/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="G109" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Z4e8le3tme64c5nGRXwu9PIXV7pWycsC/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xxbewbyaQkfXeptOQPIP82hu4vZeUB-1/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="G110" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1JTiujfoXWB834QHQSDALZGYYTNJnUCRH/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1HH5QJTLhiz_TZ_MLPR0ux0pPyMW2xIqM/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>310</v>
+        <v>106</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13gda-N1C7zIEKkaMY3jleArw-l9Y0C24/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1maYwff0eYQIBLOYMhOJC54lEXS1TYSEU/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="G112" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1qP4TsqR_KSXHJeD4I2E77GJOtBdtCaTT/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1T-G5ApyWW7WYCuZnCw0aU0Sq9y1RH3JT/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>317</v>
+        <v>106</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>318</v>
+        <v>298</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="G113" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1AeFv5B6ijQV_EBxvhBsl-yUCOIGzP2hY/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1_1LDKjN3WA2xdMMerQcYkEiJAiXO__rW/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="G114" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1UIvEwhxTfe85QvhgiCLGrAFSeR6TGv5F/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/16o4XtC2LGL8d-GiPI1tOWCKmTBnS7HE7/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>201</v>
+        <v>303</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="G115" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1BOKiy-ARXaj030qjn2TyCZyW1EIBoMUo/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1cfkuHWi-W6DzrsTau6VJU64mNUiwaksK/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>201</v>
+        <v>307</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="G116" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1i-EGixJ7cii5hqxTFVMYQcFJwxba-kg9/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XUmsm8XSfIfK-AHjFT6mMDJ8YBMuhCoC/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XrZ91bOtwzL9ASwECWZ_sNU0FtB7Tc9C/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/16hEr12NoZrWlpoEymMq54irw0DyU_bbs/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4462,187 +4479,196 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G118" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1_9I7PWyb04F-WDLu-iI6_NmLu5xJ3dKA/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1uXXg4jG2F8FzrrIA8rJw7-9JoVPjd1wX/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>201</v>
+        <v>315</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="G119" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/157jWE8qcm59DvH13ppN7ILTcBZqhJl0u/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Z4e8le3tme64c5nGRXwu9PIXV7pWycsC/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>201</v>
+        <v>319</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="G120" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1rpkFgJjYzLsU-uVI3p7yDyvdklUParmV/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1JTiujfoXWB834QHQSDALZGYYTNJnUCRH/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>201</v>
+        <v>323</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="G121" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/19azOcwSRrhoEj5P97jaAmuqq1LiGu3mA/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13gda-N1C7zIEKkaMY3jleArw-l9Y0C24/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="G122" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1523TLizbxwVqiyUPYEwqB_9-3Yq82o5X/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1qP4TsqR_KSXHJeD4I2E77GJOtBdtCaTT/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="G123" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1EvY97CXjkEsVVReRBOOPL77vCsd1YG0c/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1AeFv5B6ijQV_EBxvhBsl-yUCOIGzP2hY/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="G124" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10gZy3zAXjW-ICONFLQ2zlETokZ1fLAeC/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1UIvEwhxTfe85QvhgiCLGrAFSeR6TGv5F/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="G125" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1CvveZqLei21zZZ3iz8qkRYzTWeQFuwcK/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1BOKiy-ARXaj030qjn2TyCZyW1EIBoMUo/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="G126" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Fv6EbadRYAJz5qBnRk6sbKy7y7LI9VsI/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1i-EGixJ7cii5hqxTFVMYQcFJwxba-kg9/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4651,226 +4677,229 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="G127" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1iWdV8saFgZHJHGbC-zTXIxj77RcQs9SL/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XrZ91bOtwzL9ASwECWZ_sNU0FtB7Tc9C/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="G128" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/127lbxuo17iROFUGR4KVHJ5Kn1eqfxCAY/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1_9I7PWyb04F-WDLu-iI6_NmLu5xJ3dKA/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="G129" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lWEV0oN_W3bi0lfDN76Pasr5Z6UkXp46/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/157jWE8qcm59DvH13ppN7ILTcBZqhJl0u/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G130" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lMLcvDkjlY16f_bJ0wgALU5o3NyJAsFR/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1rpkFgJjYzLsU-uVI3p7yDyvdklUParmV/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G131" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1q-1sONVDlI_-A5mPBjF1zNBYX19JWATt/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/19azOcwSRrhoEj5P97jaAmuqq1LiGu3mA/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G132" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1fgwc2uEUw6T_0gIBGHKHLpWkD2qnbnN9/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1523TLizbxwVqiyUPYEwqB_9-3Yq82o5X/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="G133" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13vXJgavldsT8g_ICfrhpG-8NCj_itVV_/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1EvY97CXjkEsVVReRBOOPL77vCsd1YG0c/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="G134" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1caCihUZK1Xzva6iTRBoeOBPnTaXNuDEt/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10gZy3zAXjW-ICONFLQ2zlETokZ1fLAeC/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G135" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1YnxZehZH4dXm0_NDTo4dAH9Ccxys6pHo/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1CvveZqLei21zZZ3iz8qkRYzTWeQFuwcK/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="G136" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nOGRtT966heMd3zc1QZtQDTXG65gHjCY/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Fv6EbadRYAJz5qBnRk6sbKy7y7LI9VsI/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>343</v>
+        <v>246</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G137" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RENuKnUMrHERcB5tqJ88sgzMKAXxfikf/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1iWdV8saFgZHJHGbC-zTXIxj77RcQs9SL/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -4879,352 +4908,328 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="G138" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1SYV9Nh9IHss6RTHbZiBUpUvwLYVTET4v/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="246.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/127lbxuo17iROFUGR4KVHJ5Kn1eqfxCAY/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="D139" s="1" t="s">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>350</v>
+        <v>247</v>
       </c>
       <c r="G139" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1FHD-CsOtMsipvaBmVzmkHaC3Ou_oVcn8/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lWEV0oN_W3bi0lfDN76Pasr5Z6UkXp46/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>352</v>
+        <v>211</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="G140" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1KaUPd8b-vTMVBhKu2s4JB6jupDCENL0c/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lMLcvDkjlY16f_bJ0wgALU5o3NyJAsFR/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>354</v>
+        <v>211</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="G141" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Ihrms9ZcHFnvTxr3Xwt24fg6IK-SReIH/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1q-1sONVDlI_-A5mPBjF1zNBYX19JWATt/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>356</v>
+        <v>212</v>
       </c>
       <c r="G142" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1wVgk8hr7o5Hi61bZaymp92xr0VeU1Pei/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1fgwc2uEUw6T_0gIBGHKHLpWkD2qnbnN9/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>358</v>
+        <v>212</v>
       </c>
       <c r="G143" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/11zYKNULMEBcCQBVGjjmc9wWedNDk_poI/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13vXJgavldsT8g_ICfrhpG-8NCj_itVV_/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>361</v>
+        <v>221</v>
       </c>
       <c r="G144" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1V0uk7yO9nytcWIJplvPiaYv4EiO1Shbu/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1caCihUZK1Xzva6iTRBoeOBPnTaXNuDEt/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>365</v>
+        <v>212</v>
       </c>
       <c r="G145" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1QpcphaGKkCOvwU00BlYqlST_DifUU0E-/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1YnxZehZH4dXm0_NDTo4dAH9Ccxys6pHo/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="G146" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13iKtvl1cq1DpZtQ9PbuUCnYhg6Kb35_k/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nOGRtT966heMd3zc1QZtQDTXG65gHjCY/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G147" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1k5LgCBqPy1b0BhuCaQ2_B6Atq257yCRh/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RENuKnUMrHERcB5tqJ88sgzMKAXxfikf/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G148" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TwD31IQAcwPcL7VUErziextXJd4-X3WL/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1SYV9Nh9IHss6RTHbZiBUpUvwLYVTET4v/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="246.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="G149" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/12F8AuqLFOicjJtFp05IxFnEY20Kr0QUF/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1FHD-CsOtMsipvaBmVzmkHaC3Ou_oVcn8/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="G150" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TJJBFNr6yatN8bcAMgQknKUpCdMKgvKd/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1KaUPd8b-vTMVBhKu2s4JB6jupDCENL0c/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="G151" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xbxRyCJa_CLlpCLb6iRRXCZwwzuyRKbV/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Ihrms9ZcHFnvTxr3Xwt24fg6IK-SReIH/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>352</v>
+        <v>121</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="G152" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1JRUY1Eyo4WLgYzRHKHLvPqAbXMjJsrVM/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1wVgk8hr7o5Hi61bZaymp92xr0VeU1Pei/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>390</v>
+        <v>121</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="G153" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1eg_DK5EijcdLkEIEVfU4W2nQ3L3YT4V7/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/11zYKNULMEBcCQBVGjjmc9wWedNDk_poI/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -5233,592 +5238,589 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="G154" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nJGHq1Kdm5TfIYNcRfFTj769dsktpUA-/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1V0uk7yO9nytcWIJplvPiaYv4EiO1Shbu/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="G155" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1ASfdXFVAJj3aXzUnosbVPclVZwnBxHPh/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1QpcphaGKkCOvwU00BlYqlST_DifUU0E-/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="G156" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1d5AtbAYORgBJG0R8TTGuQ7fLN49OQgih/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13iKtvl1cq1DpZtQ9PbuUCnYhg6Kb35_k/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>405</v>
+        <v>383</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="G157" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1P5d9J-NAspvQaDPkgM-Ho1ss6YAiqGei/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1k5LgCBqPy1b0BhuCaQ2_B6Atq257yCRh/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>408</v>
+        <v>387</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="G158" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TrsMZxTE1vLZFUsJdFkUzjM48c4yDji2/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TwD31IQAcwPcL7VUErziextXJd4-X3WL/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="G159" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1GM0XbTLyZOuOgFzQN-TjCWK_hNVqJzqE/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/12F8AuqLFOicjJtFp05IxFnEY20Kr0QUF/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="F160" s="1" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="G160" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RXQxLOgI_Zfz0mJNGIjsyWxLN87f2Ad9/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TJJBFNr6yatN8bcAMgQknKUpCdMKgvKd/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="G161" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1LLJ-zsQUd3AK0yzVPv24k97kJDp76ZKF/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="261.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xbxRyCJa_CLlpCLb6iRRXCZwwzuyRKbV/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>420</v>
+        <v>399</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="G162" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1oEraGsi8wpFH0h69cG7HL2uoVj2zaLy4/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1JRUY1Eyo4WLgYzRHKHLvPqAbXMjJsrVM/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="G163" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/11XsDwJPL6ig8DfL3J_M1Lkq-ab699ejo/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1eg_DK5EijcdLkEIEVfU4W2nQ3L3YT4V7/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>426</v>
+        <v>408</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="G164" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lMGPmtRHMJkPvuQR4TwSqXwv0IykGctr/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nJGHq1Kdm5TfIYNcRfFTj769dsktpUA-/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>429</v>
+      <c r="F165" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="G165" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1p20SPwf-DVmuib93BOKmnk7mcJ8Yvukm/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1ASfdXFVAJj3aXzUnosbVPclVZwnBxHPh/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="G166" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xFMHSp_w3_GWDtIpHrm8RczZ4-E9MJk6/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1d5AtbAYORgBJG0R8TTGuQ7fLN49OQgih/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="G167" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1wZXZWXWw3tXNPlpGoI7m7q_MbqT5LyqD/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1P5d9J-NAspvQaDPkgM-Ho1ss6YAiqGei/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="G168" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1poNtX68ZTj55-zfmcTa5Zt0fEmhjn9id/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TrsMZxTE1vLZFUsJdFkUzjM48c4yDji2/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>439</v>
+        <v>422</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="G169" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1M7OvC7N60VzPcBNU7UqF-sEp5PBdISDJ/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1GM0XbTLyZOuOgFzQN-TjCWK_hNVqJzqE/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>442</v>
+        <v>425</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="G170" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1jQiQHc0Av9dzDnRMa6qJixDDWW-iM3DF/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RXQxLOgI_Zfz0mJNGIjsyWxLN87f2Ad9/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="G171" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nBqjD92acK9yOONMgt_rJcHJGWvT86Gr/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1LLJ-zsQUd3AK0yzVPv24k97kJDp76ZKF/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="261.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>448</v>
+        <v>431</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="G172" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1tVymi1GV6B3Dzv4NfJYnIaWCLAiWXJ-w/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1oEraGsi8wpFH0h69cG7HL2uoVj2zaLy4/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="G173" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13KRfTja9tW6PHFUZkyaOfEkKIzyiL9Ut/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/11XsDwJPL6ig8DfL3J_M1Lkq-ab699ejo/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="G174" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1N-BNT9G1L8KpWqS0X3sOolfc43FVvG3R/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1lMGPmtRHMJkPvuQR4TwSqXwv0IykGctr/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="189.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>456</v>
+        <v>440</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="G175" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1aAi7t_t_yQfdaxSMzMLP5CtKdL-gRvUZ/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1p20SPwf-DVmuib93BOKmnk7mcJ8Yvukm/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="G176" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xcG9IUizrKBXDf2QRARu-_OHCbBuDtxF/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xFMHSp_w3_GWDtIpHrm8RczZ4-E9MJk6/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G177" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10JhEg4mnAFc9SpDpoocs-rVajpjc4B7E/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1wZXZWXWw3tXNPlpGoI7m7q_MbqT5LyqD/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>464</v>
+        <v>402</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="G178" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1I6DHyRk__vdR2NRW39Ao_T5-OpLhDN3f/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1poNtX68ZTj55-zfmcTa5Zt0fEmhjn9id/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="G179" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TV6yJqNfSbgHa1G9MxGR1Nqbj_H_Uzdw/preview","View File")</f>
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1M7OvC7N60VzPcBNU7UqF-sEp5PBdISDJ/preview","View File")</f>
         <v>View File</v>
       </c>
     </row>
@@ -5827,156 +5829,390 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="G180" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Ziwgn9v8FhX7D5cbcTY6zlOt0C5i7EyI/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1jQiQHc0Av9dzDnRMa6qJixDDWW-iM3DF/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="G181" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/12MS9c05uary3oXP9BuCPYK-LCR_OmYfT/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1nBqjD92acK9yOONMgt_rJcHJGWvT86Gr/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="218.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>477</v>
+        <v>402</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="G182" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XIxlZsHp-rThALAnTH4Yq3IKwQuOOjAn/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="246.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1tVymi1GV6B3Dzv4NfJYnIaWCLAiWXJ-w/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="203.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>477</v>
+        <v>402</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>482</v>
+        <v>462</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="G183" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xb7FiZSj_iNq1hLfnE4o0xLCdlRVca4X/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/13KRfTja9tW6PHFUZkyaOfEkKIzyiL9Ut/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="174.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>484</v>
+        <v>465</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="G184" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RxwYuxI5bT6NOZ41tUi9CevvrXf2t-Wg/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1N-BNT9G1L8KpWqS0X3sOolfc43FVvG3R/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="G185" s="1" t="str">
-        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10AXSKVH6Iq7aMhxH6oDEg5C0-JTPCKLN/preview","View File")</f>
-        <v>View File</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1aAi7t_t_yQfdaxSMzMLP5CtKdL-gRvUZ/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G186" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xcG9IUizrKBXDf2QRARu-_OHCbBuDtxF/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="116.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G187" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10JhEg4mnAFc9SpDpoocs-rVajpjc4B7E/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G188" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1I6DHyRk__vdR2NRW39Ao_T5-OpLhDN3f/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="232.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G189" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1TV6yJqNfSbgHa1G9MxGR1Nqbj_H_Uzdw/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G190" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1Ziwgn9v8FhX7D5cbcTY6zlOt0C5i7EyI/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="160.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G191" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/12MS9c05uary3oXP9BuCPYK-LCR_OmYfT/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="131.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G186" s="1" t="str">
+      <c r="D192" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G192" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1XIxlZsHp-rThALAnTH4Yq3IKwQuOOjAn/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="246.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G193" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1xb7FiZSj_iNq1hLfnE4o0xLCdlRVca4X/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="87.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G194" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/1RxwYuxI5bT6NOZ41tUi9CevvrXf2t-Wg/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="102.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G195" s="1" t="str">
+        <f aca="false">HYPERLINK("https://drive.google.com/file/d/10AXSKVH6Iq7aMhxH6oDEg5C0-JTPCKLN/preview","View File")</f>
+        <v>View File</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G196" s="1" t="str">
         <f aca="false">HYPERLINK("https://drive.google.com/file/d/1zfslu1a-SA0LrhYvLnQ2LtB4azin83Tx/preview","View File")</f>
         <v>View File</v>
       </c>
@@ -6016,22 +6252,22 @@
     <hyperlink ref="F45" r:id="rId31" display="https://aijournals.com/index.php/ajs/article/view/1859"/>
     <hyperlink ref="F46" r:id="rId32" display="https://aijournals.com/index.php/ajs/article/view/1858"/>
     <hyperlink ref="F47" r:id="rId33" display="http://www.ijmacr.com/issue/pagedata/520/Laparoscopic-vs-Open-http://www.ijmacr.com/issue/pagedata/520/Laparoscopic-vs-Open-Drainage-of-Complex-Pyogenic-Liver-Abscess"/>
-    <hyperlink ref="F95" r:id="rId34" display="https://www.rjpbcs.com/2011_2.4.html"/>
-    <hyperlink ref="F96" r:id="rId35" display="https://ijrps.com/index.php/home/article/view/3595"/>
-    <hyperlink ref="F98" r:id="rId36" display="https://journalijcmes.com/issues/local-application-phenytoin-sodium-diabetic-ulcers-randomized-prospective-study"/>
-    <hyperlink ref="F99" r:id="rId37" display="http://journalijmrr.com/?page_id=1397"/>
-    <hyperlink ref="F101" r:id="rId38" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
-    <hyperlink ref="F102" r:id="rId39" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
-    <hyperlink ref="F103" r:id="rId40" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
-    <hyperlink ref="F105" r:id="rId41" display="https://dx.doi.org/10.18535/jmscr/v5i10.130"/>
-    <hyperlink ref="F106" r:id="rId42" display="https://www.ijsar.in/archiveslist.aspx?id=40"/>
-    <hyperlink ref="F109" r:id="rId43" display="https://dx.doi.org/10.18535/jmscr/v7i6.156"/>
-    <hyperlink ref="F110" r:id="rId44" display="https://www.ijmacr.com/issue/archive_issue/25"/>
-    <hyperlink ref="F111" r:id="rId45" display="http://www.ijmacr.com/issue/pagedata/514/Study-on-stage-of-breast-carcinoma-at-the-time-of-hospitalisation"/>
-    <hyperlink ref="F144" r:id="rId46" display="https://www.worldwidejournals.com/paripex/recent_issues_pdf/2016/December/patient-satisfaction-on-hospital-catering-and-dietary-management-in-a-specialty-hospital_December_2016_1108090566_0811838.pdf"/>
-    <hyperlink ref="F147" r:id="rId47" display="https://www.elixirpublishers.com/index.php?route=articles/archives&amp;month=January&amp;year=2017"/>
-    <hyperlink ref="F152" r:id="rId48" display="https://www.wjpr.net/ abstract show/6550"/>
-    <hyperlink ref="F154" r:id="rId49" display="https://www.worldwidejournals.com/paripex/recent_issues_pdf/2016/December/a-project-report-on-customer-stisfaction-towrds-patients-at-billroth-hospital_December_2016_9006566011_9700705.pdf"/>
+    <hyperlink ref="F105" r:id="rId34" display="https://www.rjpbcs.com/2011_2.4.html"/>
+    <hyperlink ref="F106" r:id="rId35" display="https://ijrps.com/index.php/home/article/view/3595"/>
+    <hyperlink ref="F108" r:id="rId36" display="https://journalijcmes.com/issues/local-application-phenytoin-sodium-diabetic-ulcers-randomized-prospective-study"/>
+    <hyperlink ref="F109" r:id="rId37" display="http://journalijmrr.com/?page_id=1397"/>
+    <hyperlink ref="F111" r:id="rId38" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
+    <hyperlink ref="F112" r:id="rId39" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
+    <hyperlink ref="F113" r:id="rId40" display="https://www.ijsar.in/archiveslist.aspx?id=26"/>
+    <hyperlink ref="F115" r:id="rId41" display="https://dx.doi.org/10.18535/jmscr/v5i10.130"/>
+    <hyperlink ref="F116" r:id="rId42" display="https://www.ijsar.in/archiveslist.aspx?id=40"/>
+    <hyperlink ref="F119" r:id="rId43" display="https://dx.doi.org/10.18535/jmscr/v7i6.156"/>
+    <hyperlink ref="F120" r:id="rId44" display="https://www.ijmacr.com/issue/archive_issue/25"/>
+    <hyperlink ref="F121" r:id="rId45" display="http://www.ijmacr.com/issue/pagedata/514/Study-on-stage-of-breast-carcinoma-at-the-time-of-hospitalisation"/>
+    <hyperlink ref="F154" r:id="rId46" display="https://www.worldwidejournals.com/paripex/recent_issues_pdf/2016/December/patient-satisfaction-on-hospital-catering-and-dietary-management-in-a-specialty-hospital_December_2016_1108090566_0811838.pdf"/>
+    <hyperlink ref="F157" r:id="rId47" display="https://www.elixirpublishers.com/index.php?route=articles/archives&amp;month=January&amp;year=2017"/>
+    <hyperlink ref="F162" r:id="rId48" display="https://www.wjpr.net/ abstract show/6550"/>
+    <hyperlink ref="F164" r:id="rId49" display="https://www.worldwidejournals.com/paripex/recent_issues_pdf/2016/December/a-project-report-on-customer-stisfaction-towrds-patients-at-billroth-hospital_December_2016_9006566011_9700705.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
